--- a/tests/fixtures/secret_pdf_scanned.xlsx
+++ b/tests/fixtures/secret_pdf_scanned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/working/xnat-uploader/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3B584-327F-6947-8D94-85EC98783263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF5F669-42A4-AD4B-821B-D1D4437F919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="6400" windowWidth="29340" windowHeight="15200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="6040" windowWidth="29340" windowHeight="15200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Configuration</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>DICOM:StudyDescription</t>
+  </si>
+  <si>
+    <t>DICOM:SeriesNumber</t>
   </si>
 </sst>
 </file>
@@ -634,10 +637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,7 +648,7 @@
     <col min="2" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -683,28 +686,31 @@
         <v>46</v>
       </c>
       <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -729,26 +735,29 @@
       <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2">
+        <v>6168</v>
+      </c>
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -773,26 +782,29 @@
       <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3">
+        <v>6168</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>32</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>40</v>
       </c>

--- a/tests/fixtures/secret_pdf_scanned.xlsx
+++ b/tests/fixtures/secret_pdf_scanned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/working/xnat-uploader/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF5F669-42A4-AD4B-821B-D1D4437F919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4AB64-0FDB-6640-8D9C-576D35071135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="6040" windowWidth="29340" windowHeight="15200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40160" yWindow="2780" windowWidth="29340" windowHeight="15200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Configuration</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>DICOM:SeriesNumber</t>
+  </si>
+  <si>
+    <t>10001_CT1</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M3"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -732,6 +735,9 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
       <c r="L2" t="s">
         <v>33</v>
       </c>
@@ -778,6 +784,9 @@
       </c>
       <c r="H3" t="s">
         <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
       </c>
       <c r="L3" t="s">
         <v>33</v>

--- a/tests/fixtures/secret_pdf_scanned.xlsx
+++ b/tests/fixtures/secret_pdf_scanned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/working/xnat-uploader/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4AB64-0FDB-6640-8D9C-576D35071135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E927824-C6AA-504A-89B4-4B949FEF07CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40160" yWindow="2780" windowWidth="29340" windowHeight="15200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
     <t>DICOM:SeriesNumber</t>
   </si>
   <si>
-    <t>10001_CT1</t>
+    <t>10001_CT1_6168</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
